--- a/donnees_mysql.xlsx
+++ b/donnees_mysql.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>Nombre de voitures testées</t>
   </si>
@@ -25,88 +25,235 @@
     <t>Temps de suppression</t>
   </si>
   <si>
-    <t>0,32</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>0,51</t>
-  </si>
-  <si>
-    <t>0,87</t>
-  </si>
-  <si>
-    <t>0,95</t>
-  </si>
-  <si>
-    <t>2,27</t>
-  </si>
-  <si>
-    <t>2,15</t>
-  </si>
-  <si>
-    <t>2,99</t>
-  </si>
-  <si>
-    <t>2,80</t>
-  </si>
-  <si>
-    <t>3,29</t>
-  </si>
-  <si>
-    <t>4,23</t>
-  </si>
-  <si>
-    <t>3,38</t>
-  </si>
-  <si>
-    <t>4,68</t>
-  </si>
-  <si>
-    <t>4,09</t>
-  </si>
-  <si>
-    <t>3,61</t>
-  </si>
-  <si>
-    <t>3,33</t>
-  </si>
-  <si>
-    <t>4,63</t>
-  </si>
-  <si>
-    <t>4,69</t>
-  </si>
-  <si>
-    <t>4,40</t>
-  </si>
-  <si>
-    <t>4,79</t>
-  </si>
-  <si>
-    <t>5,60</t>
-  </si>
-  <si>
-    <t>6,24</t>
-  </si>
-  <si>
-    <t>7,97</t>
-  </si>
-  <si>
-    <t>3,63</t>
-  </si>
-  <si>
-    <t>8,09</t>
-  </si>
-  <si>
-    <t>22,06</t>
-  </si>
-  <si>
-    <t>16,76</t>
-  </si>
-  <si>
-    <t>11,92</t>
+    <t>0,07</t>
+  </si>
+  <si>
+    <t>0,50</t>
+  </si>
+  <si>
+    <t>0,16</t>
+  </si>
+  <si>
+    <t>0,42</t>
+  </si>
+  <si>
+    <t>0,31</t>
+  </si>
+  <si>
+    <t>0,23</t>
+  </si>
+  <si>
+    <t>0,66</t>
+  </si>
+  <si>
+    <t>0,82</t>
+  </si>
+  <si>
+    <t>0,61</t>
+  </si>
+  <si>
+    <t>0,46</t>
+  </si>
+  <si>
+    <t>1,13</t>
+  </si>
+  <si>
+    <t>1,34</t>
+  </si>
+  <si>
+    <t>0,47</t>
+  </si>
+  <si>
+    <t>1,46</t>
+  </si>
+  <si>
+    <t>0,91</t>
+  </si>
+  <si>
+    <t>0,54</t>
+  </si>
+  <si>
+    <t>2,38</t>
+  </si>
+  <si>
+    <t>1,26</t>
+  </si>
+  <si>
+    <t>0,62</t>
+  </si>
+  <si>
+    <t>3,31</t>
+  </si>
+  <si>
+    <t>1,53</t>
+  </si>
+  <si>
+    <t>0,79</t>
+  </si>
+  <si>
+    <t>2,57</t>
+  </si>
+  <si>
+    <t>1,48</t>
+  </si>
+  <si>
+    <t>1,17</t>
+  </si>
+  <si>
+    <t>2,93</t>
+  </si>
+  <si>
+    <t>2,63</t>
+  </si>
+  <si>
+    <t>1,40</t>
+  </si>
+  <si>
+    <t>7,59</t>
+  </si>
+  <si>
+    <t>4,25</t>
+  </si>
+  <si>
+    <t>1,74</t>
+  </si>
+  <si>
+    <t>6,13</t>
+  </si>
+  <si>
+    <t>7,86</t>
+  </si>
+  <si>
+    <t>2,14</t>
+  </si>
+  <si>
+    <t>4,34</t>
+  </si>
+  <si>
+    <t>5,09</t>
+  </si>
+  <si>
+    <t>3,46</t>
+  </si>
+  <si>
+    <t>5,26</t>
+  </si>
+  <si>
+    <t>6,02</t>
+  </si>
+  <si>
+    <t>4,92</t>
+  </si>
+  <si>
+    <t>9,37</t>
+  </si>
+  <si>
+    <t>11,26</t>
+  </si>
+  <si>
+    <t>3,27</t>
+  </si>
+  <si>
+    <t>11,50</t>
+  </si>
+  <si>
+    <t>6,48</t>
+  </si>
+  <si>
+    <t>3,02</t>
+  </si>
+  <si>
+    <t>13,99</t>
+  </si>
+  <si>
+    <t>12,22</t>
+  </si>
+  <si>
+    <t>7,70</t>
+  </si>
+  <si>
+    <t>13,07</t>
+  </si>
+  <si>
+    <t>10,44</t>
+  </si>
+  <si>
+    <t>6,17</t>
+  </si>
+  <si>
+    <t>13,61</t>
+  </si>
+  <si>
+    <t>7,33</t>
+  </si>
+  <si>
+    <t>15,68</t>
+  </si>
+  <si>
+    <t>17,11</t>
+  </si>
+  <si>
+    <t>7,39</t>
+  </si>
+  <si>
+    <t>17,10</t>
+  </si>
+  <si>
+    <t>14,31</t>
+  </si>
+  <si>
+    <t>8,94</t>
+  </si>
+  <si>
+    <t>11,34</t>
+  </si>
+  <si>
+    <t>12,13</t>
+  </si>
+  <si>
+    <t>3,14</t>
+  </si>
+  <si>
+    <t>8,47</t>
+  </si>
+  <si>
+    <t>13,17</t>
+  </si>
+  <si>
+    <t>3,19</t>
+  </si>
+  <si>
+    <t>9,70</t>
+  </si>
+  <si>
+    <t>13,13</t>
+  </si>
+  <si>
+    <t>3,79</t>
+  </si>
+  <si>
+    <t>15,57</t>
+  </si>
+  <si>
+    <t>14,55</t>
+  </si>
+  <si>
+    <t>4,12</t>
+  </si>
+  <si>
+    <t>15,70</t>
+  </si>
+  <si>
+    <t>15,85</t>
+  </si>
+  <si>
+    <t>4,51</t>
+  </si>
+  <si>
+    <t>13,43</t>
+  </si>
+  <si>
+    <t>15,48</t>
   </si>
 </sst>
 </file>
@@ -511,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,10 +669,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,13 +680,13 @@
         <v>113037</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -550,10 +697,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -561,13 +708,13 @@
         <v>188395</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -575,13 +722,13 @@
         <v>226074</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,13 +736,13 @@
         <v>263753</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,13 +750,13 @@
         <v>301432</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,13 +764,13 @@
         <v>339111</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,13 +778,13 @@
         <v>376790</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,13 +792,13 @@
         <v>414469</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -659,13 +806,13 @@
         <v>452148</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,13 +820,13 @@
         <v>489827</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +834,13 @@
         <v>527506</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +848,13 @@
         <v>565185</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,13 +862,13 @@
         <v>602864</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,13 +876,13 @@
         <v>640543</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,13 +890,13 @@
         <v>678222</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +904,13 @@
         <v>715901</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,13 +918,13 @@
         <v>753580</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,13 +932,13 @@
         <v>791259</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,13 +946,13 @@
         <v>828938</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,13 +960,13 @@
         <v>866617</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,13 +974,13 @@
         <v>904296</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,13 +988,13 @@
         <v>941975</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -855,13 +1002,13 @@
         <v>979654</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -869,13 +1016,13 @@
         <v>1017333</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
